--- a/Meetings/Meetings.xlsx
+++ b/Meetings/Meetings.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -31,19 +31,67 @@
     <t>presentation</t>
   </si>
   <si>
-    <t>Hydromax USA presented satellite leak detection and p-CAT technologies.</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
     <t>Files</t>
   </si>
   <si>
-    <t>Kube Engineering &amp; Toshiba flow measuring equipment.</t>
-  </si>
-  <si>
     <t>Path</t>
+  </si>
+  <si>
+    <t>Malcolm Pirnie, Pipeline Risk Assessment and Capital Planning</t>
+  </si>
+  <si>
+    <t>Malcolm Pirnie, Water Main Risk Assessment and Capital Planning</t>
+  </si>
+  <si>
+    <t>Water Research Foundation Workshop</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Spencer Lank</t>
+  </si>
+  <si>
+    <t>Malcome Pirnie</t>
+  </si>
+  <si>
+    <t>Kube Engineering, Toshiba</t>
+  </si>
+  <si>
+    <t>Hydromax</t>
+  </si>
+  <si>
+    <t>Flow measuring equipment.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Presented satellite leak detection and p-CAT technologies.</t>
+  </si>
+  <si>
+    <t>Simon Wong Engineering</t>
+  </si>
+  <si>
+    <t>Water Distribution Reservoir Structural Assessment Seminar</t>
+  </si>
+  <si>
+    <t>Pure Technologies</t>
+  </si>
+  <si>
+    <t>San Diego Pipeline Management Workshop</t>
+  </si>
+  <si>
+    <t>SDG&amp;E</t>
+  </si>
+  <si>
+    <t>Pump Efficiency Testing Training</t>
+  </si>
+  <si>
+    <t>Brown &amp; Caldwell</t>
+  </si>
+  <si>
+    <t>Condition Assessment Seminar</t>
   </si>
 </sst>
 </file>
@@ -231,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -243,8 +291,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,25 +602,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,16 +629,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>42913</v>
       </c>
@@ -593,15 +649,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="7" t="str">
-        <f>HYPERLINK("Y:\EPM\CondAssess\Meetings\Files\"&amp;E2,"Go")</f>
-        <v>Go</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="str">
+        <f>HYPERLINK("Files\"&amp;F2,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F2" s="8">
         <v>20170627</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>43006</v>
       </c>
@@ -609,36 +666,189 @@
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="str">
-        <f>HYPERLINK("Y:\EPM\CondAssess\Meetings\Files\"&amp;E3,"Go")</f>
-        <v>Go</v>
-      </c>
-      <c r="E3" s="8">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f t="shared" ref="E3:E4" si="0">HYPERLINK("Files\"&amp;F3,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F3" s="8">
         <v>20170928</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>43019</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Go</v>
+      </c>
+      <c r="F4" s="8">
+        <v>20171011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>40990</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>HYPERLINK("Files\"&amp;F5,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F5" s="12">
+        <v>20120322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>41016</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="str">
-        <f>HYPERLINK("Y:\EPM\CondAssess\Meetings\Files\"&amp;E4,"Go")</f>
-        <v>Go</v>
-      </c>
-      <c r="E4" s="12">
-        <v>20171011</v>
+      <c r="E6" s="13" t="str">
+        <f>HYPERLINK("Files\"&amp;F6,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F6" s="12">
+        <v>20120417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>41837</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="str">
+        <f>HYPERLINK("Files\"&amp;F7,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F7" s="12">
+        <v>20140717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>41088</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13" t="str">
+        <f>HYPERLINK("Files\"&amp;F8,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F8" s="12">
+        <v>20120628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>41087</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13" t="str">
+        <f>HYPERLINK("Files\"&amp;F9,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F9" s="12">
+        <v>20120627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>41100</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="13" t="str">
+        <f>HYPERLINK("Files\"&amp;F10,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F10" s="12">
+        <v>20120710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>41617</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="15" t="str">
+        <f>HYPERLINK("Files\"&amp;F11,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F11" s="16">
+        <v>20131209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Meetings/Meetings.xlsx
+++ b/Meetings/Meetings.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Condition Assessment Seminar</t>
+  </si>
+  <si>
+    <t>Vien Hong</t>
+  </si>
+  <si>
+    <t>Wastewater Master Planning &amp; Condition Assessment Section Staff Meeting</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -290,13 +296,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,13 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,212 +648,241 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>42913</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>43067</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="str">
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="12" t="str">
         <f>HYPERLINK("Files\"&amp;F2,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F2" s="8">
-        <v>20170627</v>
+      <c r="F2" s="11">
+        <v>20171128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>43006</v>
+        <v>43019</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f t="shared" ref="E3:E4" si="0">HYPERLINK("Files\"&amp;F3,"Go")</f>
+        <f>HYPERLINK("Files\"&amp;F3,"Go")</f>
         <v>Go</v>
       </c>
       <c r="F3" s="8">
-        <v>20170928</v>
+        <v>20171011</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>43019</v>
+        <v>43006</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK("Files\"&amp;F4,"Go")</f>
         <v>Go</v>
       </c>
       <c r="F4" s="8">
-        <v>20171011</v>
+        <v>20170928</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>40990</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>6</v>
+        <v>42913</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>HYPERLINK("Files\"&amp;F5,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F5" s="12">
-        <v>20120322</v>
+      <c r="F5" s="8">
+        <v>20170627</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>41016</v>
-      </c>
-      <c r="B6" s="11" t="s">
+        <v>41837</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="13" t="str">
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="str">
         <f>HYPERLINK("Files\"&amp;F6,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F6" s="12">
-        <v>20120417</v>
+      <c r="F6" s="11">
+        <v>20140717</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>41837</v>
-      </c>
-      <c r="B7" s="11" t="s">
+        <v>41617</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="13" t="str">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="str">
         <f>HYPERLINK("Files\"&amp;F7,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F7" s="12">
-        <v>20140717</v>
+      <c r="F7" s="11">
+        <v>20131209</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>41088</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>41100</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="13" t="str">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="12" t="str">
         <f>HYPERLINK("Files\"&amp;F8,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F8" s="12">
-        <v>20120628</v>
+      <c r="F8" s="11">
+        <v>20120710</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>41087</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>41088</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13" t="str">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="12" t="str">
         <f>HYPERLINK("Files\"&amp;F9,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F9" s="12">
-        <v>20120627</v>
+      <c r="F9" s="11">
+        <v>20120628</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>41100</v>
-      </c>
-      <c r="B10" s="11" t="s">
+        <v>41087</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="13" t="str">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="str">
         <f>HYPERLINK("Files\"&amp;F10,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F10" s="12">
-        <v>20120710</v>
+      <c r="F10" s="11">
+        <v>20120627</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>41617</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="5">
+        <v>41016</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="15" t="str">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12" t="str">
         <f>HYPERLINK("Files\"&amp;F11,"Go")</f>
         <v>Go</v>
       </c>
-      <c r="F11" s="16">
-        <v>20131209</v>
+      <c r="F11" s="11">
+        <v>20120417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>40990</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="15" t="str">
+        <f>HYPERLINK("Files\"&amp;F12,"Go")</f>
+        <v>Go</v>
+      </c>
+      <c r="F12" s="14">
+        <v>20120322</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F12">
+      <sortCondition descending="1" ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
